--- a/results/error_test_redo.xlsx
+++ b/results/error_test_redo.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rodolfocacacho/Documents/Documents/MAI/Master Thesis/Code/rag_project/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{20D52CA3-3535-BF49-B76E-CB8D53BFADC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FEEEFDD-9A41-DC4B-9E33-5175CD2B5874}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-51200" yWindow="-7800" windowWidth="51200" windowHeight="28800" xr2:uid="{6D80462B-75ED-3542-84FE-E38CA96305BC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$E$1:$J$36</definedName>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="25">
   <si>
     <t>Förderübersicht BEG EM</t>
   </si>
@@ -129,12 +130,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -149,13 +156,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -486,10 +503,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF4ACF55-FF2F-F540-9C6E-0986DD701F36}">
   <sheetPr filterMode="1"/>
-  <dimension ref="E1:J36"/>
+  <dimension ref="E1:J52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7:J10"/>
+      <selection activeCell="E48" sqref="E48:E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -542,7 +559,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="5:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E3" t="s">
         <v>3</v>
       </c>
@@ -582,7 +599,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="5:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E5" t="s">
         <v>6</v>
       </c>
@@ -622,8 +639,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="E7" t="s">
+    <row r="7" spans="5:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E7" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F7" t="s">
@@ -642,8 +659,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="E8" t="s">
+    <row r="8" spans="5:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E8" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F8" t="s">
@@ -662,8 +679,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="E9" t="s">
+    <row r="9" spans="5:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E9" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F9" t="s">
@@ -682,8 +699,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="E10" t="s">
+    <row r="10" spans="5:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E10" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F10" t="s">
@@ -722,7 +739,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="5:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E12" t="s">
         <v>15</v>
       </c>
@@ -762,7 +779,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="5:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E14" t="s">
         <v>3</v>
       </c>
@@ -802,7 +819,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="5:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E16" t="s">
         <v>6</v>
       </c>
@@ -843,7 +860,7 @@
       </c>
     </row>
     <row r="18" spans="5:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="E18" t="s">
+      <c r="E18" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F18" t="s">
@@ -863,7 +880,7 @@
       </c>
     </row>
     <row r="19" spans="5:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="E19" t="s">
+      <c r="E19" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F19" t="s">
@@ -883,7 +900,7 @@
       </c>
     </row>
     <row r="20" spans="5:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="E20" t="s">
+      <c r="E20" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F20" t="s">
@@ -903,7 +920,7 @@
       </c>
     </row>
     <row r="21" spans="5:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="E21" t="s">
+      <c r="E21" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F21" t="s">
@@ -942,7 +959,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="23" spans="5:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E23" t="s">
         <v>15</v>
       </c>
@@ -982,7 +999,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="5:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E25" t="s">
         <v>3</v>
       </c>
@@ -1022,7 +1039,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="5:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E27" t="s">
         <v>6</v>
       </c>
@@ -1063,7 +1080,7 @@
       </c>
     </row>
     <row r="29" spans="5:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="E29" t="s">
+      <c r="E29" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F29" t="s">
@@ -1083,7 +1100,7 @@
       </c>
     </row>
     <row r="30" spans="5:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="E30" t="s">
+      <c r="E30" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F30" t="s">
@@ -1103,7 +1120,7 @@
       </c>
     </row>
     <row r="31" spans="5:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="E31" t="s">
+      <c r="E31" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F31" t="s">
@@ -1123,7 +1140,7 @@
       </c>
     </row>
     <row r="32" spans="5:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="E32" t="s">
+      <c r="E32" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F32" t="s">
@@ -1162,7 +1179,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="34" spans="5:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E34" t="s">
         <v>15</v>
       </c>
@@ -1182,7 +1199,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="35" spans="5:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E35" t="s">
         <v>6</v>
       </c>
@@ -1222,24 +1239,95 @@
         <v>82</v>
       </c>
     </row>
+    <row r="48" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E48" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E49" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E50" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E51" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E52" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="E1:J36" xr:uid="{EF4ACF55-FF2F-F540-9C6E-0986DD701F36}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="jinaai/jina-embeddings-v3"/>
-      </filters>
+    <filterColumn colId="0">
+      <colorFilter dxfId="0"/>
     </filterColumn>
     <filterColumn colId="2">
       <filters>
         <filter val="500"/>
       </filters>
     </filterColumn>
-    <filterColumn colId="4">
-      <filters>
-        <filter val="Förderübersicht BEG EM"/>
-      </filters>
-    </filterColumn>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A87BF103-8FBE-7D44-9F81-F4A7394AFA67}">
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/results/error_test_redo.xlsx
+++ b/results/error_test_redo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rodolfocacacho/Documents/Documents/MAI/Master Thesis/Code/rag_project/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FEEEFDD-9A41-DC4B-9E33-5175CD2B5874}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9D0E36F-64EC-8E4E-8DB5-2A8AED9EBCC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-51200" yWindow="-7800" windowWidth="51200" windowHeight="28800" xr2:uid="{6D80462B-75ED-3542-84FE-E38CA96305BC}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="25">
   <si>
     <t>Förderübersicht BEG EM</t>
   </si>
@@ -503,10 +503,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF4ACF55-FF2F-F540-9C6E-0986DD701F36}">
   <sheetPr filterMode="1"/>
-  <dimension ref="E1:J52"/>
+  <dimension ref="E1:J49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48:E52"/>
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1239,6 +1239,16 @@
         <v>82</v>
       </c>
     </row>
+    <row r="46" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E46" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E47" t="s">
+        <v>15</v>
+      </c>
+    </row>
     <row r="48" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E48" t="s">
         <v>4</v>
@@ -1247,21 +1257,6 @@
     <row r="49" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E49" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="50" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E50" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="51" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E51" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="52" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E52" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/results/error_test_redo.xlsx
+++ b/results/error_test_redo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rodolfocacacho/Documents/Documents/MAI/Master Thesis/Code/rag_project/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9D0E36F-64EC-8E4E-8DB5-2A8AED9EBCC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A48062D-481A-E841-8F1B-7A59FFB8EED4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-51200" yWindow="-7800" windowWidth="51200" windowHeight="28800" xr2:uid="{6D80462B-75ED-3542-84FE-E38CA96305BC}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="25">
   <si>
     <t>Förderübersicht BEG EM</t>
   </si>
@@ -503,10 +503,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF4ACF55-FF2F-F540-9C6E-0986DD701F36}">
   <sheetPr filterMode="1"/>
-  <dimension ref="E1:J49"/>
+  <dimension ref="E1:J48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1239,24 +1239,9 @@
         <v>82</v>
       </c>
     </row>
-    <row r="46" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="E46" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="47" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="E47" t="s">
-        <v>15</v>
-      </c>
-    </row>
     <row r="48" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E48" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E49" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/results/error_test_redo.xlsx
+++ b/results/error_test_redo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rodolfocacacho/Documents/Documents/MAI/Master Thesis/Code/rag_project/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A48062D-481A-E841-8F1B-7A59FFB8EED4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E486C7D-8199-9B42-8E68-3DD82B75804A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-51200" yWindow="-7800" windowWidth="51200" windowHeight="28800" xr2:uid="{6D80462B-75ED-3542-84FE-E38CA96305BC}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="25">
   <si>
     <t>Förderübersicht BEG EM</t>
   </si>
@@ -503,10 +503,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF4ACF55-FF2F-F540-9C6E-0986DD701F36}">
   <sheetPr filterMode="1"/>
-  <dimension ref="E1:J48"/>
+  <dimension ref="E1:J36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1237,11 +1237,6 @@
       </c>
       <c r="J36">
         <v>82</v>
-      </c>
-    </row>
-    <row r="48" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="E48" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
